--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7533\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7533\Desktop\1901\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>성별</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,34 @@
   </si>
   <si>
     <t>상급병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,6 +289,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,6 +599,9 @@
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -586,6 +620,9 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -601,6 +638,9 @@
       <c r="F3" s="1">
         <v>0.27594000000000002</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -612,8 +652,8 @@
       <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
+      <c r="G4" s="1">
+        <v>128.19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -633,6 +673,9 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -648,6 +691,9 @@
       <c r="F6" s="1">
         <v>0.73777999999999999</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -663,6 +709,9 @@
       <c r="F7" s="1">
         <v>0.1103</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
@@ -678,8 +727,8 @@
       <c r="F8" s="5">
         <v>5.4000000000000002E-7</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
+      <c r="G8" s="1">
+        <v>1749.27</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -696,8 +745,8 @@
       <c r="F9" s="6">
         <v>2.0300000000000001E-3</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
+      <c r="G9" s="1">
+        <v>-1324.03</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -719,8 +768,8 @@
       <c r="F10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
+      <c r="G10" s="11">
+        <v>499.72</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -735,6 +784,7 @@
         <v>2946</v>
       </c>
       <c r="F11" s="9"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
@@ -748,6 +798,7 @@
         <v>6510</v>
       </c>
       <c r="F12" s="9"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
@@ -761,6 +812,7 @@
         <v>27061</v>
       </c>
       <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
@@ -774,6 +826,7 @@
         <v>44832</v>
       </c>
       <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -785,8 +838,8 @@
       <c r="F15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
+      <c r="G15" s="1">
+        <v>15141.29</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -806,6 +859,9 @@
       <c r="F16" s="1">
         <v>0.89902000000000004</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
@@ -821,6 +877,9 @@
       <c r="F17" s="1">
         <v>0.59806000000000004</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
@@ -836,6 +895,9 @@
       <c r="F18" s="1">
         <v>0.48786000000000002</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
@@ -851,6 +913,9 @@
       <c r="F19" s="1">
         <v>0.41177000000000002</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
@@ -866,6 +931,9 @@
       <c r="F20" s="1">
         <v>0.82133</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
@@ -881,6 +949,9 @@
       <c r="F21" s="1">
         <v>0.76439000000000001</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
@@ -896,6 +967,9 @@
       <c r="F22" s="1">
         <v>0.78078000000000003</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
@@ -911,6 +985,9 @@
       <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -1052,11 +1129,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F10:F14"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="D28:D32"/>
     <mergeCell ref="F28:F32"/>
+    <mergeCell ref="G10:G14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
